--- a/Main Assesment/PB_gradient.xlsx
+++ b/Main Assesment/PB_gradient.xlsx
@@ -1,43 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonporteus/Documents/GitHub/ssb_s5/Main Assesment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D11EFE-D3CB-9744-A02B-649894E3E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Expirement Number</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +98,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,205 +442,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Expirement Number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Gradient</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.7963546193883085</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9645213624372955</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C2">
+        <v>0.79635461938830854</v>
+      </c>
+      <c r="D2">
+        <v>0.96452136243729547</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>0.76810104247564526</v>
+      </c>
+      <c r="F2">
+        <f>C2+D2</f>
+        <v>1.7608759818256039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.8985114401030777</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9996705937268655</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C3">
+        <v>0.89851144010307771</v>
+      </c>
+      <c r="D3">
+        <v>0.99967059372686551</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">C3*D3</f>
+        <v>0.89821546479822467</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">C3+D3</f>
+        <v>1.8981820338299431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.7918529351082572</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9604871661936528</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>0.79185293510825716</v>
+      </c>
+      <c r="D4">
+        <v>0.96048716619365282</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.76056458168425634</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.75234010130191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.9731079574478823</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.97310795744788225</v>
+      </c>
+      <c r="D5">
         <v>0.9999330760735059</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.97304283324246721</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.9730410335213882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.9802791534793471</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.98027915347934713</v>
+      </c>
+      <c r="D6">
         <v>0.9998692809513583</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.98015101232100099</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.9801484344307054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.9857988851113088</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9998652304963115</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>0.98579888511130875</v>
+      </c>
+      <c r="D7">
+        <v>0.99986523049631149</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.98566602948482562</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.9856641156076202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.984284332409344</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9989592729119728</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C8">
+        <v>0.98428433240934399</v>
+      </c>
+      <c r="D8">
+        <v>0.99895927291197284</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.98325996104228486</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.9832436053213169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.9285815219134922</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.92858152191349219</v>
+      </c>
+      <c r="D9">
         <v>0.9995810597967526</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.92819250178196999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.9281625817102448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.8592412801765601</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.9995868862818987</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="D10">
+        <v>0.99958688628189873</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.85888631581656028</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.8588281664584589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.9845584580186174</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9998880415886509</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="C11">
+        <v>0.98455845801861741</v>
+      </c>
+      <c r="D11">
+        <v>0.99988804158865086</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.98444822841777724</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.9844464996072682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.8603850300681457</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.86038503006814571</v>
+      </c>
+      <c r="D12">
         <v>0.9994370497294307</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.85990067608267506</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.8598220797975764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.9545912823390308</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9999820986076366</v>
+      <c r="C13">
+        <v>0.95459128233903079</v>
+      </c>
+      <c r="D13">
+        <v>0.99998209860763665</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.954574193825939</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1.9545733809466674</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>